--- a/z topic3.xlsx
+++ b/z topic3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="105">
   <si>
     <t>Belongs to Topic</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Operated by Role</t>
   </si>
   <si>
-    <t>Trained by Employee</t>
-  </si>
-  <si>
     <t>Uses System</t>
   </si>
   <si>
@@ -58,6 +55,12 @@
     <t>Related Document</t>
   </si>
   <si>
+    <t>To Be Signed By</t>
+  </si>
+  <si>
+    <t>Has Signed</t>
+  </si>
+  <si>
     <t>Approved by (filled out by PMO)</t>
   </si>
   <si>
@@ -106,7 +109,7 @@
     <t>Real SOP Writer</t>
   </si>
   <si>
-    <t>DE Counterpart</t>
+    <t>Approver</t>
   </si>
   <si>
     <t>NO Counterpart</t>
@@ -130,7 +133,7 @@
     <t>EB User Development</t>
   </si>
   <si>
-    <t>EB Service Operation (ESO)</t>
+    <t>EB Service Operation</t>
   </si>
   <si>
     <t>EB Network Development</t>
@@ -148,7 +151,7 @@
     <t>COE Purchase</t>
   </si>
   <si>
-    <t>COE Product Experience</t>
+    <t>COE Product Design</t>
   </si>
   <si>
     <t>COE Power Operation</t>
@@ -325,7 +328,7 @@
     <t>chengguo shi</t>
   </si>
   <si>
-    <t xml:space="preserve"> henry shen</t>
+    <t>henry shen</t>
   </si>
 </sst>
 </file>
@@ -683,13 +686,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AK29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,19 +798,22 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37">
       <c r="A2" s="1">
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -831,22 +837,22 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>7</v>
@@ -905,19 +911,22 @@
       <c r="AJ2">
         <v>7</v>
       </c>
+      <c r="AK2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:37">
       <c r="A3" s="1">
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3">
         <v>22</v>
@@ -941,22 +950,22 @@
         <v>21</v>
       </c>
       <c r="L3">
+        <v>17</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
         <v>22</v>
       </c>
-      <c r="M3">
-        <v>17</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
       <c r="P3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>22</v>
@@ -1015,19 +1024,22 @@
       <c r="AJ3">
         <v>22</v>
       </c>
+      <c r="AK3">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:37">
       <c r="A4" s="1">
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E4">
         <v>44</v>
@@ -1051,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>17</v>
+      </c>
+      <c r="O4">
         <v>44</v>
       </c>
-      <c r="M4">
-        <v>15</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>17</v>
-      </c>
       <c r="P4">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Q4">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>44</v>
@@ -1099,10 +1111,10 @@
         <v>44</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AC4">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>44</v>
@@ -1125,19 +1137,22 @@
       <c r="AJ4">
         <v>44</v>
       </c>
+      <c r="AK4">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:37">
       <c r="A5" s="1">
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1161,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1170,13 +1185,13 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>3</v>
@@ -1209,10 +1224,10 @@
         <v>3</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <v>3</v>
@@ -1235,19 +1250,22 @@
       <c r="AJ5">
         <v>3</v>
       </c>
+      <c r="AK5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:37">
       <c r="A6" s="1">
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E6">
         <v>11</v>
@@ -1271,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1280,13 +1298,13 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>11</v>
@@ -1345,19 +1363,22 @@
       <c r="AJ6">
         <v>11</v>
       </c>
+      <c r="AK6">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:37">
       <c r="A7" s="1">
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -1381,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1390,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>4</v>
@@ -1455,19 +1476,22 @@
       <c r="AJ7">
         <v>4</v>
       </c>
+      <c r="AK7">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:37">
       <c r="A8" s="1">
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -1491,22 +1515,22 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>8</v>
@@ -1565,19 +1589,22 @@
       <c r="AJ8">
         <v>8</v>
       </c>
+      <c r="AK8">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:37">
       <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E9">
         <v>9</v>
@@ -1601,22 +1628,22 @@
         <v>0</v>
       </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>10</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
       <c r="P9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>10</v>
@@ -1675,19 +1702,22 @@
       <c r="AJ9">
         <v>10</v>
       </c>
+      <c r="AK9">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:37">
       <c r="A10" s="1">
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -1711,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1720,13 +1750,13 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>4</v>
@@ -1785,19 +1815,22 @@
       <c r="AJ10">
         <v>4</v>
       </c>
+      <c r="AK10">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:37">
       <c r="A11" s="1">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -1821,22 +1854,22 @@
         <v>0</v>
       </c>
       <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>6</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
       <c r="P11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>6</v>
@@ -1863,7 +1896,7 @@
         <v>6</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA11">
         <v>6</v>
@@ -1895,19 +1928,22 @@
       <c r="AJ11">
         <v>6</v>
       </c>
+      <c r="AK11">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:37">
       <c r="A12" s="1">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -1931,22 +1967,22 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>8</v>
@@ -2005,19 +2041,22 @@
       <c r="AJ12">
         <v>8</v>
       </c>
+      <c r="AK12">
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:37">
       <c r="A13" s="1">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -2041,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2050,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <v>5</v>
@@ -2115,19 +2154,22 @@
       <c r="AJ13">
         <v>5</v>
       </c>
+      <c r="AK13">
+        <v>5</v>
+      </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:37">
       <c r="A14" s="1">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14">
         <v>9</v>
@@ -2151,22 +2193,22 @@
         <v>1</v>
       </c>
       <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>9</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
       <c r="P14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>9</v>
@@ -2225,19 +2267,22 @@
       <c r="AJ14">
         <v>9</v>
       </c>
+      <c r="AK14">
+        <v>9</v>
+      </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:37">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -2261,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2270,13 +2315,13 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>5</v>
@@ -2335,19 +2380,22 @@
       <c r="AJ15">
         <v>5</v>
       </c>
+      <c r="AK15">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:37">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E16">
         <v>8</v>
@@ -2371,22 +2419,22 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <v>8</v>
@@ -2445,19 +2493,22 @@
       <c r="AJ16">
         <v>8</v>
       </c>
+      <c r="AK16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:37">
       <c r="A17" s="1">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -2481,22 +2532,22 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>5</v>
@@ -2555,19 +2606,22 @@
       <c r="AJ17">
         <v>5</v>
       </c>
+      <c r="AK17">
+        <v>5</v>
+      </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:37">
       <c r="A18" s="1">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E18">
         <v>11</v>
@@ -2591,22 +2645,22 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>11</v>
@@ -2665,19 +2719,22 @@
       <c r="AJ18">
         <v>11</v>
       </c>
+      <c r="AK18">
+        <v>11</v>
+      </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:37">
       <c r="A19" s="1">
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E19">
         <v>8</v>
@@ -2701,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -2710,14 +2767,14 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P19">
+        <v>8</v>
+      </c>
+      <c r="Q19">
         <v>1</v>
       </c>
-      <c r="Q19">
-        <v>8</v>
-      </c>
       <c r="R19">
         <v>8</v>
       </c>
@@ -2775,19 +2832,22 @@
       <c r="AJ19">
         <v>8</v>
       </c>
+      <c r="AK19">
+        <v>8</v>
+      </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:37">
       <c r="A20" s="1">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -2811,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2820,13 +2880,13 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <v>5</v>
@@ -2885,19 +2945,22 @@
       <c r="AJ20">
         <v>5</v>
       </c>
+      <c r="AK20">
+        <v>5</v>
+      </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:37">
       <c r="A21" s="1">
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E21">
         <v>7</v>
@@ -2921,22 +2984,22 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>7</v>
@@ -2966,10 +3029,10 @@
         <v>7</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC21">
         <v>7</v>
@@ -2995,19 +3058,22 @@
       <c r="AJ21">
         <v>7</v>
       </c>
+      <c r="AK21">
+        <v>7</v>
+      </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:37">
       <c r="A22" s="1">
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -3031,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -3040,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R22">
         <v>3</v>
@@ -3076,10 +3142,10 @@
         <v>3</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC22">
         <v>3</v>
@@ -3105,19 +3171,22 @@
       <c r="AJ22">
         <v>3</v>
       </c>
+      <c r="AK22">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:37">
       <c r="A23" s="1">
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -3141,22 +3210,22 @@
         <v>0</v>
       </c>
       <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>2</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
       <c r="P23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R23">
         <v>2</v>
@@ -3186,10 +3255,10 @@
         <v>2</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC23">
         <v>2</v>
@@ -3215,239 +3284,248 @@
       <c r="AJ23">
         <v>2</v>
       </c>
+      <c r="AK23">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:37">
       <c r="A24" s="1">
         <v>5</v>
       </c>
       <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24">
         <v>45</v>
       </c>
-      <c r="C24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24">
-        <v>11</v>
-      </c>
       <c r="F24">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G24">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="I24">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J24">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L24">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="S24">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="T24">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="U24">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="V24">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="W24">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="X24">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="Y24">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="Z24">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AB24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AD24">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AE24">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AF24">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AG24">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AH24">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AI24">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AJ24">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="AK24">
+        <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:37">
       <c r="A25" s="1">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H25">
         <v>10</v>
       </c>
       <c r="I25">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J25">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="S25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="T25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="U25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="V25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="W25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="X25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Y25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Z25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AB25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AD25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AF25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AG25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AH25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AI25">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AJ25">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="AK25">
+        <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:37">
       <c r="A26" s="1">
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26">
         <v>7</v>
@@ -3471,22 +3549,22 @@
         <v>2</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <v>7</v>
@@ -3516,10 +3594,10 @@
         <v>7</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <v>7</v>
@@ -3545,19 +3623,22 @@
       <c r="AJ26">
         <v>7</v>
       </c>
+      <c r="AK26">
+        <v>7</v>
+      </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:37">
       <c r="A27" s="1">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E27">
         <v>17</v>
@@ -3581,22 +3662,22 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q27">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R27">
         <v>17</v>
@@ -3626,10 +3707,10 @@
         <v>17</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AB27">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AC27">
         <v>17</v>
@@ -3655,129 +3736,135 @@
       <c r="AJ27">
         <v>17</v>
       </c>
+      <c r="AK27">
+        <v>17</v>
+      </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:37">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E28">
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>11</v>
+      </c>
+      <c r="H28">
         <v>10</v>
       </c>
-      <c r="F28">
+      <c r="I28">
         <v>10</v>
       </c>
-      <c r="G28">
+      <c r="J28">
         <v>10</v>
       </c>
-      <c r="H28">
-        <v>9</v>
-      </c>
-      <c r="I28">
-        <v>9</v>
-      </c>
-      <c r="J28">
-        <v>9</v>
-      </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ28">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="AK28">
+        <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:37">
       <c r="A29" s="1">
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E29">
         <v>8</v>
@@ -3801,22 +3888,22 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>8</v>
@@ -3846,10 +3933,10 @@
         <v>8</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB29">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC29">
         <v>8</v>
@@ -3873,6 +3960,9 @@
         <v>8</v>
       </c>
       <c r="AJ29">
+        <v>8</v>
+      </c>
+      <c r="AK29">
         <v>8</v>
       </c>
     </row>
